--- a/data/trans_dic/P62A$viudedad-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2512467745440559</v>
+        <v>0.251246774544056</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5375950668517731</v>
@@ -685,7 +685,7 @@
         <v>0.3741200220086776</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1058848330296425</v>
+        <v>0.1058848330296424</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2921505857136464</v>
@@ -715,31 +715,31 @@
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.1870408849651546</v>
+        <v>0.1866488650573784</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4722520406508803</v>
+        <v>0.4687257459598594</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3693264294381607</v>
+        <v>0.3723800593801248</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3135929230678494</v>
+        <v>0.3149291706668744</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07484167591922752</v>
+        <v>0.07138700599020265</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2481792620782834</v>
+        <v>0.2462587734833955</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1860919329192292</v>
+        <v>0.1868748910436824</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1512085942795073</v>
+        <v>0.1513143643168878</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.138289163433482</v>
+        <v>0.1322711833501008</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0336762288533615</v>
+        <v>0.03135212323897987</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06198344871878143</v>
+        <v>0.04816765613934398</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.3230842893028887</v>
+        <v>0.3338535972594452</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6060990174160832</v>
+        <v>0.6028904407609705</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5059925938479489</v>
+        <v>0.5081158782174945</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4418065437337186</v>
+        <v>0.4393093147456926</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1486001505800245</v>
+        <v>0.1477195893500279</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3369654338400398</v>
+        <v>0.3348856580509831</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2687453791227554</v>
+        <v>0.2685523921993156</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2216044206969034</v>
+        <v>0.2179315855682006</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2131644383515845</v>
+        <v>0.208045099578355</v>
       </c>
     </row>
     <row r="7">
@@ -845,31 +845,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1380114867447907</v>
+        <v>0.1400818118762965</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4304527754025461</v>
+        <v>0.4355901576267605</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3937647827081817</v>
+        <v>0.3996288992971226</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3165281599223064</v>
+        <v>0.3204686941061014</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04570720020262528</v>
+        <v>0.043883144158715</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1690881460326482</v>
+        <v>0.1714312276402284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1903584555731611</v>
+        <v>0.1899541776580309</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1382963532711881</v>
+        <v>0.1427080444505865</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0977335023360542</v>
+        <v>0.09736942421806914</v>
       </c>
     </row>
     <row r="9">
@@ -882,34 +882,34 @@
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.01973434881798836</v>
+        <v>0.0197387760160291</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2242946955732772</v>
+        <v>0.2259261671057943</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5832050858753102</v>
+        <v>0.5871808184661084</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.526431689549452</v>
+        <v>0.5292227771793088</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4621302348580506</v>
+        <v>0.4680189572096647</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0915324018662315</v>
+        <v>0.08893019133196058</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2531772768645074</v>
+        <v>0.2492739806858481</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2686779544801889</v>
+        <v>0.2696613888080854</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2170370844484671</v>
+        <v>0.2219126056954174</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1482487426754069</v>
+        <v>0.1454536291264286</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1341700054639385</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09585868957393749</v>
+        <v>0.09585868957393753</v>
       </c>
     </row>
     <row r="11">
@@ -971,31 +971,31 @@
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.07764607400360965</v>
+        <v>0.08002624611430119</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4137335453129528</v>
+        <v>0.4136746510068919</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3511068671605008</v>
+        <v>0.364020664540124</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2380162161242809</v>
+        <v>0.2387211833550695</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05373594005914111</v>
+        <v>0.05004647775769494</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1593839874743439</v>
+        <v>0.1605901977127406</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1381945150834991</v>
+        <v>0.139352204399809</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09892592984555772</v>
+        <v>0.1007183369889544</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07529181769776436</v>
+        <v>0.07377655778704817</v>
       </c>
     </row>
     <row r="12">
@@ -1009,31 +1009,31 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.1459446772452942</v>
+        <v>0.1493752350912884</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5910267031025398</v>
+        <v>0.5889730424362505</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5060582082436416</v>
+        <v>0.5052275140128185</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4026725918148692</v>
+        <v>0.4039621548772564</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1126825220682282</v>
+        <v>0.1126664836515566</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2499301070691461</v>
+        <v>0.250827756444808</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2166274824718699</v>
+        <v>0.2112758914436257</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1756180447587697</v>
+        <v>0.1746809872234987</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1220288909544515</v>
+        <v>0.1186439857527873</v>
       </c>
     </row>
     <row r="13">
@@ -1095,31 +1095,31 @@
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.0821054775777998</v>
+        <v>0.08027166214712213</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06259336335009524</v>
+        <v>0.06421364065713586</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2259798225329218</v>
+        <v>0.2271419243676326</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2034927131590359</v>
+        <v>0.2116786957470907</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05601040924778783</v>
+        <v>0.0579030466542236</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01964822343347935</v>
+        <v>0.01786984262865259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09081523949796295</v>
+        <v>0.0913270914005785</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08116800755566551</v>
+        <v>0.08060389540340278</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07687991157442578</v>
+        <v>0.07856968879931291</v>
       </c>
     </row>
     <row r="15">
@@ -1133,31 +1133,31 @@
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1614450120856609</v>
+        <v>0.1589828344396413</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3270803898111163</v>
+        <v>0.3288598326145312</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4467626236596889</v>
+        <v>0.4441103231302368</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4214610911544578</v>
+        <v>0.4098933992111581</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1221741948663656</v>
+        <v>0.1236225698840398</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1138589285960403</v>
+        <v>0.1129713389831712</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1963496240586508</v>
+        <v>0.1998441650422408</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1767213854599808</v>
+        <v>0.1745400142275302</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1327048886744406</v>
+        <v>0.1301516029234406</v>
       </c>
     </row>
     <row r="16">
@@ -1181,7 +1181,7 @@
         <v>0.00105377154676782</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1547250942753275</v>
+        <v>0.1547250942753274</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.4978584764102078</v>
@@ -1225,31 +1225,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.131891921659817</v>
+        <v>0.1341300284482549</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4562974370094054</v>
+        <v>0.4593126031021874</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3986208772459436</v>
+        <v>0.3975902835998097</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3211906691781678</v>
+        <v>0.3184035569442797</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06818994555239309</v>
+        <v>0.06735249130644069</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1998214439047515</v>
+        <v>0.2004333387949746</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1825158303036998</v>
+        <v>0.1816127818126448</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.143048101004816</v>
+        <v>0.1439622605074147</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.106523632275714</v>
+        <v>0.1060234359530758</v>
       </c>
     </row>
     <row r="18">
@@ -1260,40 +1260,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01133126060905497</v>
+        <v>0.01008407613106997</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01336812808528006</v>
+        <v>0.01201817891806631</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.005265778298482232</v>
+        <v>0.006326200050996837</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.177392110575105</v>
+        <v>0.1789642182308482</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5444695905135752</v>
+        <v>0.5393590659589794</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4693361505660119</v>
+        <v>0.4720200826783853</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3957224021146833</v>
+        <v>0.3947027421439508</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09927925483793318</v>
+        <v>0.09741204846989383</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2449909894191591</v>
+        <v>0.2474072585517775</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2230335408111323</v>
+        <v>0.2229051711339648</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1828442038224082</v>
+        <v>0.1836937958199409</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1342676773512651</v>
+        <v>0.1347002177205676</v>
       </c>
     </row>
     <row r="19">
@@ -1571,31 +1571,31 @@
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>26833</v>
+        <v>26776</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>106395</v>
+        <v>105600</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>90654</v>
+        <v>91403</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>90506</v>
+        <v>90892</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13185</v>
+        <v>12577</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>104607</v>
+        <v>103798</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>91815</v>
+        <v>92202</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>88628</v>
+        <v>88690</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>44202</v>
+        <v>42278</v>
       </c>
     </row>
     <row r="7">
@@ -1606,38 +1606,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6608</v>
+        <v>6152</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15368</v>
+        <v>11942</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>46349</v>
+        <v>47894</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>136549</v>
+        <v>135826</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>124199</v>
+        <v>124721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>127510</v>
+        <v>126789</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26180</v>
+        <v>26025</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>142031</v>
+        <v>141154</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>132595</v>
+        <v>132500</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>129889</v>
+        <v>127736</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>68135</v>
+        <v>66498</v>
       </c>
     </row>
     <row r="8">
@@ -1745,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36247</v>
+        <v>36790</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>72873</v>
+        <v>73742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>96207</v>
+        <v>97639</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>62616</v>
+        <v>63395</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12086</v>
+        <v>11604</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>70374</v>
+        <v>71349</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>94085</v>
+        <v>93885</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>60324</v>
+        <v>62248</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>51512</v>
+        <v>51320</v>
       </c>
     </row>
     <row r="11">
@@ -1782,34 +1782,34 @@
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>58908</v>
+        <v>59336</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>98733</v>
+        <v>99406</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>128620</v>
+        <v>129302</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>91419</v>
+        <v>92584</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24204</v>
+        <v>23516</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>105372</v>
+        <v>103747</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>132794</v>
+        <v>133280</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>94670</v>
+        <v>96797</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>78136</v>
+        <v>76663</v>
       </c>
     </row>
     <row r="12">
@@ -1915,31 +1915,31 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>18346</v>
+        <v>18908</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>54605</v>
+        <v>54597</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>61006</v>
+        <v>63249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37136</v>
+        <v>37246</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9689</v>
+        <v>9023</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>52490</v>
+        <v>52887</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>59734</v>
+        <v>60234</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>36565</v>
+        <v>37228</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31365</v>
+        <v>30734</v>
       </c>
     </row>
     <row r="15">
@@ -1953,31 +1953,31 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>34483</v>
+        <v>35294</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>78004</v>
+        <v>77733</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>87929</v>
+        <v>87784</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>62827</v>
+        <v>63028</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20317</v>
+        <v>20314</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>82309</v>
+        <v>82605</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>93636</v>
+        <v>91323</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>64913</v>
+        <v>64566</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>50834</v>
+        <v>49424</v>
       </c>
     </row>
     <row r="16">
@@ -2083,31 +2083,31 @@
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>18014</v>
+        <v>17611</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2141</v>
+        <v>2196</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17703</v>
+        <v>17794</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18303</v>
+        <v>19039</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9652</v>
+        <v>9979</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2053</v>
+        <v>1868</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>16858</v>
+        <v>16954</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>18449</v>
+        <v>18321</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>30116</v>
+        <v>30778</v>
       </c>
     </row>
     <row r="19">
@@ -2121,31 +2121,31 @@
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>35421</v>
+        <v>34880</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11185</v>
+        <v>11246</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>34999</v>
+        <v>34791</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37907</v>
+        <v>36867</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>21055</v>
+        <v>21304</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11900</v>
+        <v>11807</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>36449</v>
+        <v>37098</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>40167</v>
+        <v>39671</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>51984</v>
+        <v>50984</v>
       </c>
     </row>
     <row r="20">
@@ -2257,31 +2257,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>113660</v>
+        <v>115589</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>255875</v>
+        <v>257566</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>295726</v>
+        <v>294961</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>235239</v>
+        <v>233198</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>54091</v>
+        <v>53426</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>254081</v>
+        <v>254859</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>293032</v>
+        <v>291583</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>231629</v>
+        <v>233109</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>176297</v>
+        <v>175469</v>
       </c>
     </row>
     <row r="23">
@@ -2292,40 +2292,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8054</v>
+        <v>7168</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11545</v>
+        <v>10379</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4670</v>
+        <v>5610</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>152871</v>
+        <v>154226</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>305319</v>
+        <v>302453</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>348188</v>
+        <v>350179</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>289826</v>
+        <v>289079</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>78752</v>
+        <v>77271</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>311516</v>
+        <v>314588</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>358084</v>
+        <v>357878</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>296068</v>
+        <v>297444</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>222214</v>
+        <v>222930</v>
       </c>
     </row>
     <row r="24">
